--- a/Stilling Basin Design/Delta Manual Worked Example/Water Level Data Analysis/Raw_Gauge_Data_TC.xlsx
+++ b/Stilling Basin Design/Delta Manual Worked Example/Water Level Data Analysis/Raw_Gauge_Data_TC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63D1B3D-6203-4DBF-B9A5-AD4D44068AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5471AB83-CCEE-4A3B-943E-88FD4A19CBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SW_165" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13200" uniqueCount="2225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13200" uniqueCount="2226">
   <si>
     <t>Kobadak</t>
   </si>
@@ -6705,6 +6705,9 @@
   </si>
   <si>
     <t>Sheet_Name</t>
+  </si>
+  <si>
+    <t>SW_165_TC</t>
   </si>
 </sst>
 </file>
@@ -7060,7 +7063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3660"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -91260,8 +91263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -91280,7 +91283,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2222</v>
